--- a/data/long_razon/P18_1-Estudios-long_razon.xlsx
+++ b/data/long_razon/P18_1-Estudios-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-56,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>50,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>19,17%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-24,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>44,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-9,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-39,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>46,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,21%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-74,89; -21,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-28,19; 222,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-28,87; 92,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-47,32; 13,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 124,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-38,55; 25,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-55,91; -15,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,32; 116,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-28,14; 29,41</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-62,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>67,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-5,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-57,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>27,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>14,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-59,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>42,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-75,0; -42,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,95; 152,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-34,89; 38,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-67,31; -43,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 68,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-7,72; 43,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-67,78; -47,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,78; 78,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-14,96; 31,28</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-60,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>81,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-34,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-74,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>23,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-69,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>44,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-9,52%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-75,91; -39,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 188,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-59,11; -4,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-81,84; -63,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-10,99; 70,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-17,92; 42,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-77,66; -60,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,58; 94,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-29,29; 11,47</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-60,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>67,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-9,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-57,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>30,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-58,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>43,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-0,51%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1144,223 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-69,91; -48,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>22,6; 127,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-28,75; 15,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-64,44; -48,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,55; 60,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-11,17; 23,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-65,07; -52,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,87; 69,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-13,5; 14,06</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P18_1-Estudios-long_razon.xlsx
+++ b/data/long_razon/P18_1-Estudios-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -654,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.5989924432278466</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.1252226190935174</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.201939145942883</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>1.013427692696196</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-0.1670060669618256</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.2088221522211229</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.01453098023513865</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>-0.2923717215772722</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>-0.3833616886186029</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>0.1027004774081807</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>0.07782383166017283</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>0.04378131799383062</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.8381761792592081</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.5694613722210494</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.2631258672672537</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.1159970586497567</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.4803000500231476</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.1772006277148081</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.2547722791887303</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.5416567871753986</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.6185340305643832</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.2144301441971272</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.1849410972926805</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>-0.3326838233444748</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-0.1996101810790372</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.7986422236621645</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.9858124582082211</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>5.025747478272482</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.4655620012125987</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.9579410136889153</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.3778521390681431</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.08296766286871443</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>-0.06606401893574709</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.5878731327169664</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>0.3928516749398144</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>0.7016164465135725</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.5754131262304335</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.090673674106606</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.07435952785911262</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.0456853306215366</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.5254638228072495</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.2685714144353096</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.1530079035336289</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>-0.2910868996067097</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>-0.5449555640194141</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>0.5420284077512334</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>0.04586214958858056</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>-0.2077661451904759</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.7409694876254265</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.3158059199161095</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.3766671460728612</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.4186967614408451</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.654680286446881</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.09104392786173403</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.08576619857939335</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.4603067192254722</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.6617129186556868</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>0.1960221651831665</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.1390556544794068</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-0.3840747620225573</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>-0.2955424840801793</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>2.539008398667347</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.3068420211183185</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.9972388825448324</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>-0.3498893234053801</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.6676759942960555</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.4680661568911567</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>-0.04964145893276792</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>-0.4151202080791664</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>1.037317216715294</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>0.3105064388270395</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>0.07535884238977915</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1074,293 +931,284 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-0.6722995081164271</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.774886755070509</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.3529020437940069</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.1089661781294133</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-0.7233189434863476</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.3258476472406774</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.07006637678800712</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>-0.2575376525087419</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>-0.7071401601957449</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0.7202551199208438</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>-0.1082402520226441</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>-0.1951374034242049</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-0.8305123302867994</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.5373499587275272</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.5652422339670758</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.4900626487477475</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.8193605074253622</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.04842527789433024</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.1550784352283174</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.4618053711388231</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.7905573897301881</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>0.3057113338282162</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.2876724807730419</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>-0.4187135178525254</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-0.376068372003143</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>3.886594722254434</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>-0.04997102673933457</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.3979730381938535</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>-0.6034281910449566</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.8614159874299543</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.4199838034342913</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.02189984328392944</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>-0.5862224391588396</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>1.317913014360611</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>0.1129839001177352</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>0.05545656673163749</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-0.6084774038215727</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.9284343515479776</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.1036262927194594</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.1064449970677398</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-0.5556763886079569</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.2693854509127571</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.08965304425278434</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>-0.2815893868635144</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>-0.5758640852713423</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0.4753510353892817</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>0.007676052181464521</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>-0.1467498411166159</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.7259757474179355</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.3877233458413841</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.2962737269871856</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.2003144216669054</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.6443676496868809</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0.05216729945827552</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.06386372324758421</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.4127916387213051</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.6491454475815793</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>0.2475118862315562</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.1160859744007622</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>-0.2903976487252988</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-0.4552545534378113</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.642519137255217</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.1519679254292989</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.7805400341083853</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>-0.4345322545879273</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.541160910861865</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.267363644448764</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>-0.1272540264037352</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>-0.4875925248868816</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.774620597349481</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.1569837833190489</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0.062145149867998</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
